--- a/ParametricGraph/bench4x2222.xlsx
+++ b/ParametricGraph/bench4x2222.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 

--- a/ParametricGraph/bench4x2222.xlsx
+++ b/ParametricGraph/bench4x2222.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Прибор 2,6</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,6 +430,9 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
@@ -451,6 +457,9 @@
       <c r="B2">
         <f>2*11*10*2*11*10*10*10*10*10*10*10</f>
         <v>48400000000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19">

--- a/ParametricGraph/bench4x2222.xlsx
+++ b/ParametricGraph/bench4x2222.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -160,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +200,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +235,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -401,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -423,7 +433,7 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +460,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4045</v>
       </c>
@@ -462,12 +472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -505,7 +515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -543,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -581,7 +591,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -613,7 +623,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
@@ -645,7 +655,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -677,7 +687,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
@@ -709,7 +719,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>6</v>
       </c>
@@ -741,7 +751,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>7</v>
       </c>
@@ -773,7 +783,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
@@ -805,7 +815,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>9</v>
       </c>
@@ -837,7 +847,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>10</v>
       </c>
@@ -852,12 +862,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -865,12 +875,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
